--- a/cost/assets/formatsXlsx/Productos(Compuesto).xlsx
+++ b/cost/assets/formatsXlsx/Productos(Compuesto).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ledesma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE18198-1C71-42BE-981B-731DDECBD23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A89480C-DB9E-4C70-A1F9-639C7F20D2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>referencia</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>sub_producto</t>
+  </si>
+  <si>
+    <t>activo</t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -208,6 +211,37 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -218,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,13 +294,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -345,15 +402,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:F9" totalsRowShown="0">
-  <autoFilter ref="A1:F9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G9" totalsRowShown="0">
+  <autoFilter ref="A1:G9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="referencia"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="producto"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="precio_venta" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="rentabilidad" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="precio_venta" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="rentabilidad" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="comision_ventas"/>
-    <tableColumn id="7" xr3:uid="{77457689-0FB1-4A43-B74B-DDC365A98FE9}" name="sub_producto" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{77457689-0FB1-4A43-B74B-DDC365A98FE9}" name="sub_producto" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{408F1300-AE8F-4677-BF08-1ADCB64BBCA3}" name="activo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,10 +705,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,9 +719,10 @@
     <col min="4" max="4" width="33.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,74 +741,86 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="12"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="12"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="1"/>
       <c r="C3" s="7"/>
       <c r="D3" s="13"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="13"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="1"/>
       <c r="C4" s="7"/>
       <c r="D4" s="13"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="13"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="7"/>
       <c r="D5" s="13"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="1"/>
       <c r="C6" s="7"/>
       <c r="D6" s="13"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="13"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="C7" s="7"/>
       <c r="D7" s="13"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
       <c r="D8" s="13"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="14"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="14"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{7D18B0B3-3FC8-4DF8-9431-BDF2780B861E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G9" xr:uid="{7D18B0B3-3FC8-4DF8-9431-BDF2780B861E}">
       <formula1>"SI,NO"</formula1>
     </dataValidation>
   </dataValidations>
